--- a/Rebooters-MS1-P1-B.xlsx
+++ b/Rebooters-MS1-P1-B.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="147">
   <si>
     <t>Team Name</t>
   </si>
@@ -118,9 +118,6 @@
     <t>Student/company</t>
   </si>
   <si>
-    <t>login to my account</t>
-  </si>
-  <si>
     <t>company</t>
   </si>
   <si>
@@ -139,9 +136,6 @@
     <t>Student</t>
   </si>
   <si>
-    <t>create/delete my profile</t>
-  </si>
-  <si>
     <t>company's profile must include description, mission, vision and origin</t>
   </si>
   <si>
@@ -166,12 +160,6 @@
     <t>part time, remote, summer time, winter etc.</t>
   </si>
   <si>
-    <t>add certifications and extracurricular acitivites</t>
-  </si>
-  <si>
-    <t>companies can see my additional qualifications</t>
-  </si>
-  <si>
     <t>8,37</t>
   </si>
   <si>
@@ -253,10 +241,7 @@
     <t>get more help to navigate through the system</t>
   </si>
   <si>
-    <t>I can ensure compliance</t>
-  </si>
-  <si>
-    <t>I can access my profile and manage my details</t>
+    <t>faculty academics</t>
   </si>
   <si>
     <t>upload my skills and certifications</t>
@@ -265,9 +250,6 @@
     <t>companies can assess my qualifications</t>
   </si>
   <si>
-    <t>I can control my information and visibility</t>
-  </si>
-  <si>
     <t>upload my profile picture or company logo</t>
   </si>
   <si>
@@ -292,12 +274,6 @@
     <t>student/company</t>
   </si>
   <si>
-    <t>receive a one-time password (OTP) via message when resetting my password</t>
-  </si>
-  <si>
-    <t>I can ensure my account security</t>
-  </si>
-  <si>
     <t>make complaints to the SCAD office</t>
   </si>
   <si>
@@ -412,9 +388,6 @@
     <t>graduation criteria are met</t>
   </si>
   <si>
-    <t>receive notifications if my report is rejected</t>
-  </si>
-  <si>
     <t>I can revise and resubmit it</t>
   </si>
   <si>
@@ -458,6 +431,36 @@
   </si>
   <si>
     <t>students can accept or decline the offer digitally, streamlining the hiring process</t>
+  </si>
+  <si>
+    <t>policy violations can be addressed</t>
+  </si>
+  <si>
+    <t>create, update, delete, and manage my profile</t>
+  </si>
+  <si>
+    <t>I can control my account and information</t>
+  </si>
+  <si>
+    <t>receive notifications if my report is rejected with reasons</t>
+  </si>
+  <si>
+    <t>receive an OTP via message/email to verify password reset requests</t>
+  </si>
+  <si>
+    <t>unauthorized access is prevented</t>
+  </si>
+  <si>
+    <t>review reports sent by SCAD</t>
+  </si>
+  <si>
+    <t>I can improve future coursework</t>
+  </si>
+  <si>
+    <t>receive an internship completion certificate through the platform</t>
+  </si>
+  <si>
+    <t>I have official proof of my internship for future job applications or academic requirements</t>
   </si>
 </sst>
 </file>
@@ -691,7 +694,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -731,9 +734,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -801,13 +801,19 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1039,38 +1045,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="28"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="1" t="s">
@@ -2161,8 +2167,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2178,28 +2184,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="35" t="s">
+      <c r="E1" s="32"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="34" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
       <c r="D2" s="5" t="s">
         <v>23</v>
       </c>
@@ -2209,7 +2215,7 @@
       <c r="F2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="31"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:26" ht="44.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
@@ -2224,7 +2230,7 @@
       <c r="D3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="39" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="9" t="s">
@@ -2245,11 +2251,11 @@
       <c r="D4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="39" t="s">
         <v>30</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="G4" s="10"/>
     </row>
@@ -2266,13 +2272,13 @@
       <c r="D5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>32</v>
+      <c r="E5" s="39" t="s">
+        <v>138</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="G5" s="25"/>
+        <v>139</v>
+      </c>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
@@ -2285,13 +2291,13 @@
         <v>4</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>141</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="G6" s="10"/>
     </row>
@@ -2306,13 +2312,13 @@
         <v>5</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="F7" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>35</v>
       </c>
       <c r="G7" s="10"/>
     </row>
@@ -2329,11 +2335,11 @@
       <c r="D8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>37</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="13"/>
@@ -2367,13 +2373,13 @@
         <v>7</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>79</v>
+        <v>37</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>74</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="13"/>
@@ -2397,24 +2403,24 @@
       <c r="Z9" s="13"/>
     </row>
     <row r="10" spans="1:26" ht="12.3" x14ac:dyDescent="0.4">
-      <c r="A10" s="6" t="s">
-        <v>26</v>
+      <c r="A10" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9">
         <v>8</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>39</v>
+      <c r="D10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>145</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2430,11 +2436,11 @@
       <c r="D11" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>82</v>
+      <c r="E11" s="39" t="s">
+        <v>76</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G11" s="10"/>
     </row>
@@ -2449,13 +2455,13 @@
         <v>10</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>40</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G12" s="10"/>
     </row>
@@ -2470,13 +2476,13 @@
         <v>11</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>83</v>
+        <v>37</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>77</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G13" s="10"/>
     </row>
@@ -2491,13 +2497,13 @@
         <v>12</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>84</v>
+        <v>37</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>78</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G14" s="10"/>
     </row>
@@ -2512,16 +2518,16 @@
         <v>13</v>
       </c>
       <c r="D15" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>47</v>
       </c>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
@@ -2547,20 +2553,18 @@
       <c r="A16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="7">
-        <v>8</v>
-      </c>
+      <c r="B16" s="7"/>
       <c r="C16" s="9">
         <v>14</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="40" t="s">
-        <v>48</v>
+      <c r="D16" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>143</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="G16" s="16"/>
     </row>
@@ -2569,19 +2573,19 @@
         <v>26</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C17" s="14">
         <v>15</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>47</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G17" s="10"/>
     </row>
@@ -2596,19 +2600,19 @@
         <v>16</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>52</v>
+        <v>83</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>48</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B19" s="7">
         <v>18</v>
@@ -2619,36 +2623,36 @@
       <c r="D19" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>54</v>
+      <c r="E19" s="39" t="s">
+        <v>50</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9">
         <v>18</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>55</v>
+        <v>89</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>51</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B21" s="9">
         <v>34</v>
@@ -2657,19 +2661,19 @@
         <v>19</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>99</v>
+        <v>32</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>91</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B22" s="7">
         <v>19</v>
@@ -2678,40 +2682,40 @@
         <v>20</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>101</v>
+        <v>32</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>93</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C23" s="14">
         <v>21</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>103</v>
+        <v>32</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>95</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B24" s="7">
         <v>18</v>
@@ -2720,19 +2724,19 @@
         <v>22</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>105</v>
+        <v>32</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>97</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B25" s="7">
         <v>18</v>
@@ -2741,19 +2745,19 @@
         <v>23</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>57</v>
+        <v>37</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>53</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G25" s="10"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B26" s="7">
         <v>18</v>
@@ -2762,19 +2766,19 @@
         <v>24</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>58</v>
+        <v>37</v>
+      </c>
+      <c r="E26" s="39" t="s">
+        <v>54</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G26" s="10"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B27" s="7">
         <v>18</v>
@@ -2783,19 +2787,19 @@
         <v>25</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>108</v>
+        <v>37</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>100</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="G27" s="10"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B28" s="7">
         <v>18</v>
@@ -2804,21 +2808,21 @@
         <v>26</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>110</v>
+        <v>37</v>
+      </c>
+      <c r="E28" s="39" t="s">
+        <v>102</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B29" s="7">
         <v>18</v>
@@ -2827,19 +2831,19 @@
         <v>27</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>61</v>
+        <v>37</v>
+      </c>
+      <c r="E29" s="39" t="s">
+        <v>57</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B30" s="7">
         <v>18</v>
@@ -2848,19 +2852,19 @@
         <v>28</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>62</v>
+        <v>37</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>58</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G30" s="10"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B31" s="7">
         <v>28</v>
@@ -2869,19 +2873,19 @@
         <v>29</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>113</v>
+        <v>37</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>105</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B32" s="7">
         <v>28</v>
@@ -2890,19 +2894,19 @@
         <v>30</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>115</v>
+        <v>37</v>
+      </c>
+      <c r="E32" s="39" t="s">
+        <v>107</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B33" s="7">
         <v>8</v>
@@ -2911,19 +2915,19 @@
         <v>31</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>117</v>
+        <v>37</v>
+      </c>
+      <c r="E33" s="39" t="s">
+        <v>109</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B34" s="7">
         <v>28</v>
@@ -2932,59 +2936,59 @@
         <v>32</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>119</v>
+        <v>37</v>
+      </c>
+      <c r="E34" s="39" t="s">
+        <v>111</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G34" s="10"/>
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C35" s="14">
         <v>33</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>121</v>
+        <v>37</v>
+      </c>
+      <c r="E35" s="39" t="s">
+        <v>113</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9">
         <v>34</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>65</v>
+        <v>43</v>
+      </c>
+      <c r="E36" s="39" t="s">
+        <v>61</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G36" s="10"/>
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B37" s="7">
         <v>18</v>
@@ -2993,19 +2997,19 @@
         <v>35</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>123</v>
+        <v>37</v>
+      </c>
+      <c r="E37" s="39" t="s">
+        <v>115</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G37" s="10"/>
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B38" s="7">
         <v>18</v>
@@ -3014,22 +3018,22 @@
         <v>36</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>125</v>
+        <v>37</v>
+      </c>
+      <c r="E38" s="39" t="s">
+        <v>117</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="G38" s="10"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C39" s="9">
         <v>37</v>
@@ -3037,17 +3041,17 @@
       <c r="D39" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E39" s="9" t="s">
-        <v>69</v>
+      <c r="E39" s="39" t="s">
+        <v>65</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G39" s="10"/>
     </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="14">
@@ -3056,36 +3060,36 @@
       <c r="D40" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E40" s="9" t="s">
-        <v>128</v>
+      <c r="E40" s="39" t="s">
+        <v>120</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="G40" s="10"/>
     </row>
     <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="9">
         <v>39</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>70</v>
+        <v>43</v>
+      </c>
+      <c r="E41" s="39" t="s">
+        <v>66</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G41" s="10"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B42" s="7">
         <v>37</v>
@@ -3094,57 +3098,57 @@
         <v>40</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>130</v>
+        <v>43</v>
+      </c>
+      <c r="E42" s="39" t="s">
+        <v>140</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G42" s="10"/>
     </row>
     <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9">
         <v>41</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>132</v>
+        <v>32</v>
+      </c>
+      <c r="E43" s="39" t="s">
+        <v>123</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="G43" s="10"/>
     </row>
     <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="14">
         <v>42</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E44" s="17" t="s">
-        <v>134</v>
+        <v>43</v>
+      </c>
+      <c r="E44" s="45" t="s">
+        <v>125</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="G44" s="10"/>
     </row>
     <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B45" s="7">
         <v>37</v>
@@ -3155,78 +3159,78 @@
       <c r="D45" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E45" s="17" t="s">
-        <v>72</v>
+      <c r="E45" s="45" t="s">
+        <v>68</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="G45" s="18" t="s">
-        <v>73</v>
+        <v>127</v>
+      </c>
+      <c r="G45" s="17" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="14">
         <v>44</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E46" s="17" t="s">
-        <v>137</v>
+        <v>43</v>
+      </c>
+      <c r="E46" s="45" t="s">
+        <v>128</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G46" s="10"/>
     </row>
     <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="9">
         <v>45</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E47" s="17" t="s">
-        <v>138</v>
+        <v>43</v>
+      </c>
+      <c r="E47" s="45" t="s">
+        <v>129</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="G47" s="10"/>
     </row>
     <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C48" s="14">
         <v>46</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E48" s="17" t="s">
-        <v>140</v>
+        <v>43</v>
+      </c>
+      <c r="E48" s="45" t="s">
+        <v>131</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G48" s="10"/>
     </row>
     <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B49" s="11"/>
       <c r="C49" s="9">
@@ -3235,31 +3239,32 @@
       <c r="D49" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E49" s="41" t="s">
-        <v>142</v>
+      <c r="E49" s="40" t="s">
+        <v>133</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="G49" s="19"/>
+        <v>134</v>
+      </c>
+      <c r="G49" s="18"/>
     </row>
     <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50" s="45"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="43"/>
       <c r="C50" s="14">
         <v>48</v>
       </c>
-      <c r="D50" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="E50" s="43" t="s">
-        <v>144</v>
-      </c>
-      <c r="F50" s="44" t="s">
-        <v>145</v>
-      </c>
+      <c r="D50" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="F50" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="G50" s="43"/>
     </row>
     <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="6" t="s">
@@ -3270,13 +3275,13 @@
         <v>49</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>92</v>
+        <v>43</v>
+      </c>
+      <c r="E51" s="39" t="s">
+        <v>84</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G51" s="10"/>
     </row>
@@ -3289,1171 +3294,1171 @@
         <v>50</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>94</v>
+        <v>43</v>
+      </c>
+      <c r="E52" s="39" t="s">
+        <v>86</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="38"/>
-      <c r="B53" s="36"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="39"/>
+      <c r="A53" s="37"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="38"/>
     </row>
     <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="38"/>
-      <c r="B54" s="36"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="39"/>
+      <c r="A54" s="37"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="38"/>
     </row>
     <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="20"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="23"/>
+      <c r="A56" s="19"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="22"/>
     </row>
     <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="20"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="23"/>
+      <c r="A57" s="19"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="22"/>
     </row>
     <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="20"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="23"/>
+      <c r="A58" s="19"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="22"/>
     </row>
     <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="20"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="23"/>
+      <c r="A59" s="19"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="22"/>
     </row>
     <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="20"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="23"/>
+      <c r="A60" s="19"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="22"/>
     </row>
     <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="20"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="23"/>
+      <c r="A61" s="19"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="22"/>
     </row>
     <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="20"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="23"/>
+      <c r="A62" s="19"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="22"/>
     </row>
     <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="20"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="23"/>
+      <c r="A63" s="19"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="22"/>
     </row>
     <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="20"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="23"/>
+      <c r="A64" s="19"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="22"/>
     </row>
     <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="20"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="23"/>
+      <c r="A65" s="19"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="22"/>
     </row>
     <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="20"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="23"/>
+      <c r="A66" s="19"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="22"/>
     </row>
     <row r="67" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="20"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="23"/>
+      <c r="A67" s="19"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="22"/>
     </row>
     <row r="68" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="20"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="23"/>
+      <c r="A68" s="19"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="22"/>
     </row>
     <row r="69" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="20"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="23"/>
+      <c r="A69" s="19"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="22"/>
     </row>
     <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="20"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="23"/>
+      <c r="A70" s="19"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="22"/>
     </row>
     <row r="71" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="20"/>
-      <c r="B71" s="20"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="23"/>
+      <c r="A71" s="19"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="22"/>
     </row>
     <row r="72" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="20"/>
-      <c r="B72" s="20"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="23"/>
+      <c r="A72" s="19"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="22"/>
     </row>
     <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="20"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="23"/>
+      <c r="A73" s="19"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="22"/>
     </row>
     <row r="74" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="20"/>
-      <c r="B74" s="20"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="20"/>
-      <c r="G74" s="23"/>
+      <c r="A74" s="19"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="22"/>
     </row>
     <row r="75" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="20"/>
-      <c r="B75" s="20"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="21"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="23"/>
+      <c r="A75" s="19"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="22"/>
     </row>
     <row r="76" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="20"/>
-      <c r="B76" s="20"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="20"/>
-      <c r="G76" s="23"/>
+      <c r="A76" s="19"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="22"/>
     </row>
     <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="20"/>
-      <c r="B77" s="20"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="20"/>
-      <c r="F77" s="20"/>
-      <c r="G77" s="23"/>
+      <c r="A77" s="19"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="22"/>
     </row>
     <row r="78" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="20"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="20"/>
-      <c r="G78" s="23"/>
+      <c r="A78" s="19"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="22"/>
     </row>
     <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="20"/>
-      <c r="B79" s="20"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="21"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="20"/>
-      <c r="G79" s="23"/>
+      <c r="A79" s="19"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="22"/>
     </row>
     <row r="80" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="20"/>
-      <c r="B80" s="20"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="21"/>
-      <c r="E80" s="20"/>
-      <c r="F80" s="20"/>
-      <c r="G80" s="23"/>
+      <c r="A80" s="19"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="22"/>
     </row>
     <row r="81" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="20"/>
-      <c r="B81" s="20"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="20"/>
-      <c r="G81" s="23"/>
+      <c r="A81" s="19"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="22"/>
     </row>
     <row r="82" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="20"/>
-      <c r="B82" s="20"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="20"/>
-      <c r="F82" s="20"/>
-      <c r="G82" s="23"/>
+      <c r="A82" s="19"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="22"/>
     </row>
     <row r="83" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="20"/>
-      <c r="B83" s="20"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="21"/>
-      <c r="E83" s="20"/>
-      <c r="F83" s="20"/>
-      <c r="G83" s="23"/>
+      <c r="A83" s="19"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="22"/>
     </row>
     <row r="84" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="20"/>
-      <c r="B84" s="20"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="21"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="20"/>
-      <c r="G84" s="23"/>
+      <c r="A84" s="19"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="22"/>
     </row>
     <row r="85" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="20"/>
-      <c r="B85" s="20"/>
-      <c r="C85" s="22"/>
-      <c r="D85" s="21"/>
-      <c r="E85" s="20"/>
-      <c r="F85" s="20"/>
-      <c r="G85" s="23"/>
+      <c r="A85" s="19"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="22"/>
     </row>
     <row r="86" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="20"/>
-      <c r="B86" s="20"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="21"/>
-      <c r="E86" s="20"/>
-      <c r="F86" s="20"/>
-      <c r="G86" s="23"/>
+      <c r="A86" s="19"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="22"/>
     </row>
     <row r="87" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="20"/>
-      <c r="B87" s="20"/>
-      <c r="C87" s="22"/>
-      <c r="D87" s="21"/>
-      <c r="E87" s="20"/>
-      <c r="F87" s="20"/>
-      <c r="G87" s="23"/>
+      <c r="A87" s="19"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="22"/>
     </row>
     <row r="88" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="20"/>
-      <c r="B88" s="20"/>
-      <c r="C88" s="22"/>
-      <c r="D88" s="21"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="20"/>
-      <c r="G88" s="23"/>
+      <c r="A88" s="19"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="22"/>
     </row>
     <row r="89" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="20"/>
-      <c r="B89" s="20"/>
-      <c r="C89" s="22"/>
-      <c r="D89" s="21"/>
-      <c r="E89" s="20"/>
-      <c r="F89" s="20"/>
-      <c r="G89" s="23"/>
+      <c r="A89" s="19"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="22"/>
     </row>
     <row r="90" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="20"/>
-      <c r="B90" s="20"/>
-      <c r="C90" s="22"/>
-      <c r="D90" s="21"/>
-      <c r="E90" s="20"/>
-      <c r="F90" s="20"/>
-      <c r="G90" s="23"/>
+      <c r="A90" s="19"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="21"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="22"/>
     </row>
     <row r="91" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="20"/>
-      <c r="B91" s="20"/>
-      <c r="C91" s="22"/>
-      <c r="D91" s="21"/>
-      <c r="E91" s="20"/>
-      <c r="F91" s="20"/>
-      <c r="G91" s="23"/>
+      <c r="A91" s="19"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="22"/>
     </row>
     <row r="92" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="20"/>
-      <c r="B92" s="20"/>
-      <c r="C92" s="22"/>
-      <c r="D92" s="21"/>
-      <c r="E92" s="20"/>
-      <c r="F92" s="20"/>
-      <c r="G92" s="23"/>
+      <c r="A92" s="19"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="19"/>
+      <c r="G92" s="22"/>
     </row>
     <row r="93" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="20"/>
-      <c r="B93" s="20"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="21"/>
-      <c r="E93" s="20"/>
-      <c r="F93" s="20"/>
-      <c r="G93" s="23"/>
+      <c r="A93" s="19"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="19"/>
+      <c r="G93" s="22"/>
     </row>
     <row r="94" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="20"/>
-      <c r="B94" s="20"/>
-      <c r="C94" s="22"/>
-      <c r="D94" s="21"/>
-      <c r="E94" s="20"/>
-      <c r="F94" s="20"/>
-      <c r="G94" s="23"/>
+      <c r="A94" s="19"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="19"/>
+      <c r="G94" s="22"/>
     </row>
     <row r="95" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="20"/>
-      <c r="B95" s="20"/>
-      <c r="C95" s="22"/>
-      <c r="D95" s="21"/>
-      <c r="E95" s="20"/>
-      <c r="F95" s="20"/>
-      <c r="G95" s="23"/>
+      <c r="A95" s="19"/>
+      <c r="B95" s="19"/>
+      <c r="C95" s="21"/>
+      <c r="D95" s="20"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="19"/>
+      <c r="G95" s="22"/>
     </row>
     <row r="96" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="20"/>
-      <c r="B96" s="20"/>
-      <c r="C96" s="22"/>
-      <c r="D96" s="21"/>
-      <c r="E96" s="20"/>
-      <c r="F96" s="20"/>
-      <c r="G96" s="23"/>
+      <c r="A96" s="19"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="21"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="19"/>
+      <c r="G96" s="22"/>
     </row>
     <row r="97" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="20"/>
-      <c r="B97" s="20"/>
-      <c r="C97" s="22"/>
-      <c r="D97" s="21"/>
-      <c r="E97" s="20"/>
-      <c r="F97" s="20"/>
-      <c r="G97" s="23"/>
+      <c r="A97" s="19"/>
+      <c r="B97" s="19"/>
+      <c r="C97" s="21"/>
+      <c r="D97" s="20"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="19"/>
+      <c r="G97" s="22"/>
     </row>
     <row r="98" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="20"/>
-      <c r="B98" s="20"/>
-      <c r="C98" s="22"/>
-      <c r="D98" s="21"/>
-      <c r="E98" s="20"/>
-      <c r="F98" s="20"/>
-      <c r="G98" s="23"/>
+      <c r="A98" s="19"/>
+      <c r="B98" s="19"/>
+      <c r="C98" s="21"/>
+      <c r="D98" s="20"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="19"/>
+      <c r="G98" s="22"/>
     </row>
     <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="20"/>
-      <c r="B99" s="20"/>
-      <c r="C99" s="22"/>
-      <c r="D99" s="21"/>
-      <c r="E99" s="20"/>
-      <c r="F99" s="20"/>
-      <c r="G99" s="23"/>
+      <c r="A99" s="19"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="21"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="19"/>
+      <c r="G99" s="22"/>
     </row>
     <row r="100" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="20"/>
-      <c r="B100" s="20"/>
-      <c r="C100" s="22"/>
-      <c r="D100" s="21"/>
-      <c r="E100" s="20"/>
-      <c r="F100" s="20"/>
-      <c r="G100" s="23"/>
+      <c r="A100" s="19"/>
+      <c r="B100" s="19"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="20"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="19"/>
+      <c r="G100" s="22"/>
     </row>
     <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="20"/>
-      <c r="B101" s="20"/>
-      <c r="C101" s="22"/>
-      <c r="D101" s="21"/>
-      <c r="E101" s="20"/>
-      <c r="F101" s="20"/>
-      <c r="G101" s="23"/>
+      <c r="A101" s="19"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="19"/>
+      <c r="F101" s="19"/>
+      <c r="G101" s="22"/>
     </row>
     <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="20"/>
-      <c r="B102" s="20"/>
-      <c r="C102" s="22"/>
-      <c r="D102" s="21"/>
-      <c r="E102" s="20"/>
-      <c r="F102" s="20"/>
-      <c r="G102" s="23"/>
+      <c r="A102" s="19"/>
+      <c r="B102" s="19"/>
+      <c r="C102" s="21"/>
+      <c r="D102" s="20"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="19"/>
+      <c r="G102" s="22"/>
     </row>
     <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="20"/>
-      <c r="B103" s="20"/>
-      <c r="C103" s="22"/>
-      <c r="D103" s="21"/>
-      <c r="E103" s="20"/>
-      <c r="F103" s="20"/>
-      <c r="G103" s="23"/>
+      <c r="A103" s="19"/>
+      <c r="B103" s="19"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="20"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="19"/>
+      <c r="G103" s="22"/>
     </row>
     <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="20"/>
-      <c r="B104" s="20"/>
-      <c r="C104" s="22"/>
-      <c r="D104" s="21"/>
-      <c r="E104" s="20"/>
-      <c r="F104" s="20"/>
-      <c r="G104" s="23"/>
+      <c r="A104" s="19"/>
+      <c r="B104" s="19"/>
+      <c r="C104" s="21"/>
+      <c r="D104" s="20"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="19"/>
+      <c r="G104" s="22"/>
     </row>
     <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="20"/>
-      <c r="B105" s="20"/>
-      <c r="C105" s="22"/>
-      <c r="D105" s="21"/>
-      <c r="E105" s="20"/>
-      <c r="F105" s="20"/>
-      <c r="G105" s="23"/>
+      <c r="A105" s="19"/>
+      <c r="B105" s="19"/>
+      <c r="C105" s="21"/>
+      <c r="D105" s="20"/>
+      <c r="E105" s="19"/>
+      <c r="F105" s="19"/>
+      <c r="G105" s="22"/>
     </row>
     <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="20"/>
-      <c r="B106" s="20"/>
-      <c r="C106" s="22"/>
-      <c r="D106" s="21"/>
-      <c r="E106" s="20"/>
-      <c r="F106" s="20"/>
-      <c r="G106" s="23"/>
+      <c r="A106" s="19"/>
+      <c r="B106" s="19"/>
+      <c r="C106" s="21"/>
+      <c r="D106" s="20"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="19"/>
+      <c r="G106" s="22"/>
     </row>
     <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A107" s="20"/>
-      <c r="B107" s="20"/>
-      <c r="C107" s="22"/>
-      <c r="D107" s="21"/>
-      <c r="E107" s="20"/>
-      <c r="F107" s="20"/>
-      <c r="G107" s="23"/>
+      <c r="A107" s="19"/>
+      <c r="B107" s="19"/>
+      <c r="C107" s="21"/>
+      <c r="D107" s="20"/>
+      <c r="E107" s="19"/>
+      <c r="F107" s="19"/>
+      <c r="G107" s="22"/>
     </row>
     <row r="108" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A108" s="20"/>
-      <c r="B108" s="20"/>
-      <c r="C108" s="22"/>
-      <c r="D108" s="21"/>
-      <c r="E108" s="20"/>
-      <c r="F108" s="20"/>
-      <c r="G108" s="23"/>
+      <c r="A108" s="19"/>
+      <c r="B108" s="19"/>
+      <c r="C108" s="21"/>
+      <c r="D108" s="20"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="19"/>
+      <c r="G108" s="22"/>
     </row>
     <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="20"/>
-      <c r="B109" s="20"/>
-      <c r="C109" s="22"/>
-      <c r="D109" s="21"/>
-      <c r="E109" s="20"/>
-      <c r="F109" s="20"/>
-      <c r="G109" s="23"/>
+      <c r="A109" s="19"/>
+      <c r="B109" s="19"/>
+      <c r="C109" s="21"/>
+      <c r="D109" s="20"/>
+      <c r="E109" s="19"/>
+      <c r="F109" s="19"/>
+      <c r="G109" s="22"/>
     </row>
     <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A110" s="20"/>
-      <c r="B110" s="20"/>
-      <c r="C110" s="22"/>
-      <c r="D110" s="21"/>
-      <c r="E110" s="20"/>
-      <c r="F110" s="20"/>
-      <c r="G110" s="23"/>
+      <c r="A110" s="19"/>
+      <c r="B110" s="19"/>
+      <c r="C110" s="21"/>
+      <c r="D110" s="20"/>
+      <c r="E110" s="19"/>
+      <c r="F110" s="19"/>
+      <c r="G110" s="22"/>
     </row>
     <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="20"/>
-      <c r="B111" s="20"/>
-      <c r="C111" s="22"/>
-      <c r="D111" s="21"/>
-      <c r="E111" s="20"/>
-      <c r="F111" s="20"/>
-      <c r="G111" s="23"/>
+      <c r="A111" s="19"/>
+      <c r="B111" s="19"/>
+      <c r="C111" s="21"/>
+      <c r="D111" s="20"/>
+      <c r="E111" s="19"/>
+      <c r="F111" s="19"/>
+      <c r="G111" s="22"/>
     </row>
     <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="20"/>
-      <c r="B112" s="20"/>
-      <c r="C112" s="22"/>
-      <c r="D112" s="21"/>
-      <c r="E112" s="20"/>
-      <c r="F112" s="20"/>
-      <c r="G112" s="23"/>
+      <c r="A112" s="19"/>
+      <c r="B112" s="19"/>
+      <c r="C112" s="21"/>
+      <c r="D112" s="20"/>
+      <c r="E112" s="19"/>
+      <c r="F112" s="19"/>
+      <c r="G112" s="22"/>
     </row>
     <row r="113" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A113" s="20"/>
-      <c r="B113" s="20"/>
-      <c r="C113" s="22"/>
-      <c r="D113" s="21"/>
-      <c r="E113" s="20"/>
-      <c r="F113" s="20"/>
-      <c r="G113" s="23"/>
+      <c r="A113" s="19"/>
+      <c r="B113" s="19"/>
+      <c r="C113" s="21"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="19"/>
+      <c r="F113" s="19"/>
+      <c r="G113" s="22"/>
     </row>
     <row r="114" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="20"/>
-      <c r="B114" s="20"/>
-      <c r="C114" s="22"/>
-      <c r="D114" s="21"/>
-      <c r="E114" s="20"/>
-      <c r="F114" s="20"/>
-      <c r="G114" s="23"/>
+      <c r="A114" s="19"/>
+      <c r="B114" s="19"/>
+      <c r="C114" s="21"/>
+      <c r="D114" s="20"/>
+      <c r="E114" s="19"/>
+      <c r="F114" s="19"/>
+      <c r="G114" s="22"/>
     </row>
     <row r="115" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A115" s="20"/>
-      <c r="B115" s="20"/>
-      <c r="C115" s="22"/>
-      <c r="D115" s="21"/>
-      <c r="E115" s="20"/>
-      <c r="F115" s="20"/>
-      <c r="G115" s="23"/>
+      <c r="A115" s="19"/>
+      <c r="B115" s="19"/>
+      <c r="C115" s="21"/>
+      <c r="D115" s="20"/>
+      <c r="E115" s="19"/>
+      <c r="F115" s="19"/>
+      <c r="G115" s="22"/>
     </row>
     <row r="116" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A116" s="20"/>
-      <c r="B116" s="20"/>
-      <c r="C116" s="22"/>
-      <c r="D116" s="21"/>
-      <c r="E116" s="20"/>
-      <c r="F116" s="20"/>
-      <c r="G116" s="23"/>
+      <c r="A116" s="19"/>
+      <c r="B116" s="19"/>
+      <c r="C116" s="21"/>
+      <c r="D116" s="20"/>
+      <c r="E116" s="19"/>
+      <c r="F116" s="19"/>
+      <c r="G116" s="22"/>
     </row>
     <row r="117" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A117" s="20"/>
-      <c r="B117" s="20"/>
-      <c r="C117" s="22"/>
-      <c r="D117" s="21"/>
-      <c r="E117" s="20"/>
-      <c r="F117" s="20"/>
-      <c r="G117" s="23"/>
+      <c r="A117" s="19"/>
+      <c r="B117" s="19"/>
+      <c r="C117" s="21"/>
+      <c r="D117" s="20"/>
+      <c r="E117" s="19"/>
+      <c r="F117" s="19"/>
+      <c r="G117" s="22"/>
     </row>
     <row r="118" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A118" s="20"/>
-      <c r="B118" s="20"/>
-      <c r="C118" s="22"/>
-      <c r="D118" s="21"/>
-      <c r="E118" s="20"/>
-      <c r="F118" s="20"/>
-      <c r="G118" s="23"/>
+      <c r="A118" s="19"/>
+      <c r="B118" s="19"/>
+      <c r="C118" s="21"/>
+      <c r="D118" s="20"/>
+      <c r="E118" s="19"/>
+      <c r="F118" s="19"/>
+      <c r="G118" s="22"/>
     </row>
     <row r="119" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A119" s="20"/>
-      <c r="B119" s="20"/>
-      <c r="C119" s="22"/>
-      <c r="D119" s="21"/>
-      <c r="E119" s="20"/>
-      <c r="F119" s="20"/>
-      <c r="G119" s="23"/>
+      <c r="A119" s="19"/>
+      <c r="B119" s="19"/>
+      <c r="C119" s="21"/>
+      <c r="D119" s="20"/>
+      <c r="E119" s="19"/>
+      <c r="F119" s="19"/>
+      <c r="G119" s="22"/>
     </row>
     <row r="120" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A120" s="20"/>
-      <c r="B120" s="20"/>
-      <c r="C120" s="22"/>
-      <c r="D120" s="21"/>
-      <c r="E120" s="20"/>
-      <c r="F120" s="20"/>
-      <c r="G120" s="23"/>
+      <c r="A120" s="19"/>
+      <c r="B120" s="19"/>
+      <c r="C120" s="21"/>
+      <c r="D120" s="20"/>
+      <c r="E120" s="19"/>
+      <c r="F120" s="19"/>
+      <c r="G120" s="22"/>
     </row>
     <row r="121" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A121" s="20"/>
-      <c r="B121" s="20"/>
-      <c r="C121" s="22"/>
-      <c r="D121" s="21"/>
-      <c r="E121" s="20"/>
-      <c r="F121" s="20"/>
-      <c r="G121" s="23"/>
+      <c r="A121" s="19"/>
+      <c r="B121" s="19"/>
+      <c r="C121" s="21"/>
+      <c r="D121" s="20"/>
+      <c r="E121" s="19"/>
+      <c r="F121" s="19"/>
+      <c r="G121" s="22"/>
     </row>
     <row r="122" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A122" s="20"/>
-      <c r="B122" s="20"/>
-      <c r="C122" s="22"/>
-      <c r="D122" s="21"/>
-      <c r="E122" s="20"/>
-      <c r="F122" s="20"/>
-      <c r="G122" s="23"/>
+      <c r="A122" s="19"/>
+      <c r="B122" s="19"/>
+      <c r="C122" s="21"/>
+      <c r="D122" s="20"/>
+      <c r="E122" s="19"/>
+      <c r="F122" s="19"/>
+      <c r="G122" s="22"/>
     </row>
     <row r="123" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D123" s="21"/>
-      <c r="G123" s="24"/>
+      <c r="D123" s="20"/>
+      <c r="G123" s="23"/>
     </row>
     <row r="124" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D124" s="21"/>
-      <c r="G124" s="24"/>
+      <c r="D124" s="20"/>
+      <c r="G124" s="23"/>
     </row>
     <row r="125" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D125" s="21"/>
-      <c r="G125" s="24"/>
+      <c r="D125" s="20"/>
+      <c r="G125" s="23"/>
     </row>
     <row r="126" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D126" s="21"/>
-      <c r="G126" s="24"/>
+      <c r="D126" s="20"/>
+      <c r="G126" s="23"/>
     </row>
     <row r="127" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D127" s="21"/>
-      <c r="G127" s="24"/>
+      <c r="D127" s="20"/>
+      <c r="G127" s="23"/>
     </row>
     <row r="128" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D128" s="21"/>
-      <c r="G128" s="24"/>
+      <c r="D128" s="20"/>
+      <c r="G128" s="23"/>
     </row>
     <row r="129" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D129" s="21"/>
-      <c r="G129" s="24"/>
+      <c r="D129" s="20"/>
+      <c r="G129" s="23"/>
     </row>
     <row r="130" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D130" s="21"/>
-      <c r="G130" s="24"/>
+      <c r="D130" s="20"/>
+      <c r="G130" s="23"/>
     </row>
     <row r="131" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D131" s="21"/>
-      <c r="G131" s="24"/>
+      <c r="D131" s="20"/>
+      <c r="G131" s="23"/>
     </row>
     <row r="132" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D132" s="21"/>
-      <c r="G132" s="24"/>
+      <c r="D132" s="20"/>
+      <c r="G132" s="23"/>
     </row>
     <row r="133" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D133" s="21"/>
-      <c r="G133" s="24"/>
+      <c r="D133" s="20"/>
+      <c r="G133" s="23"/>
     </row>
     <row r="134" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D134" s="21"/>
-      <c r="G134" s="24"/>
+      <c r="D134" s="20"/>
+      <c r="G134" s="23"/>
     </row>
     <row r="135" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D135" s="21"/>
-      <c r="G135" s="24"/>
+      <c r="D135" s="20"/>
+      <c r="G135" s="23"/>
     </row>
     <row r="136" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D136" s="21"/>
-      <c r="G136" s="24"/>
+      <c r="D136" s="20"/>
+      <c r="G136" s="23"/>
     </row>
     <row r="137" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D137" s="21"/>
-      <c r="G137" s="24"/>
+      <c r="D137" s="20"/>
+      <c r="G137" s="23"/>
     </row>
     <row r="138" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D138" s="21"/>
-      <c r="G138" s="24"/>
+      <c r="D138" s="20"/>
+      <c r="G138" s="23"/>
     </row>
     <row r="139" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D139" s="21"/>
-      <c r="G139" s="24"/>
+      <c r="D139" s="20"/>
+      <c r="G139" s="23"/>
     </row>
     <row r="140" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D140" s="21"/>
-      <c r="G140" s="24"/>
+      <c r="D140" s="20"/>
+      <c r="G140" s="23"/>
     </row>
     <row r="141" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D141" s="21"/>
-      <c r="G141" s="24"/>
+      <c r="D141" s="20"/>
+      <c r="G141" s="23"/>
     </row>
     <row r="142" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D142" s="21"/>
-      <c r="G142" s="24"/>
+      <c r="D142" s="20"/>
+      <c r="G142" s="23"/>
     </row>
     <row r="143" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D143" s="21"/>
-      <c r="G143" s="24"/>
+      <c r="D143" s="20"/>
+      <c r="G143" s="23"/>
     </row>
     <row r="144" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D144" s="21"/>
-      <c r="G144" s="24"/>
+      <c r="D144" s="20"/>
+      <c r="G144" s="23"/>
     </row>
     <row r="145" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D145" s="21"/>
-      <c r="G145" s="24"/>
+      <c r="D145" s="20"/>
+      <c r="G145" s="23"/>
     </row>
     <row r="146" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D146" s="21"/>
-      <c r="G146" s="24"/>
+      <c r="D146" s="20"/>
+      <c r="G146" s="23"/>
     </row>
     <row r="147" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D147" s="21"/>
-      <c r="G147" s="24"/>
+      <c r="D147" s="20"/>
+      <c r="G147" s="23"/>
     </row>
     <row r="148" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D148" s="21"/>
-      <c r="G148" s="24"/>
+      <c r="D148" s="20"/>
+      <c r="G148" s="23"/>
     </row>
     <row r="149" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D149" s="21"/>
-      <c r="G149" s="24"/>
+      <c r="D149" s="20"/>
+      <c r="G149" s="23"/>
     </row>
     <row r="150" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D150" s="21"/>
-      <c r="G150" s="24"/>
+      <c r="D150" s="20"/>
+      <c r="G150" s="23"/>
     </row>
     <row r="151" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D151" s="21"/>
-      <c r="G151" s="24"/>
+      <c r="D151" s="20"/>
+      <c r="G151" s="23"/>
     </row>
     <row r="152" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D152" s="21"/>
-      <c r="G152" s="24"/>
+      <c r="D152" s="20"/>
+      <c r="G152" s="23"/>
     </row>
     <row r="153" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D153" s="21"/>
-      <c r="G153" s="24"/>
+      <c r="D153" s="20"/>
+      <c r="G153" s="23"/>
     </row>
     <row r="154" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D154" s="21"/>
-      <c r="G154" s="24"/>
+      <c r="D154" s="20"/>
+      <c r="G154" s="23"/>
     </row>
     <row r="155" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D155" s="21"/>
-      <c r="G155" s="24"/>
+      <c r="D155" s="20"/>
+      <c r="G155" s="23"/>
     </row>
     <row r="156" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D156" s="21"/>
-      <c r="G156" s="24"/>
+      <c r="D156" s="20"/>
+      <c r="G156" s="23"/>
     </row>
     <row r="157" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D157" s="21"/>
-      <c r="G157" s="24"/>
+      <c r="D157" s="20"/>
+      <c r="G157" s="23"/>
     </row>
     <row r="158" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D158" s="21"/>
-      <c r="G158" s="24"/>
+      <c r="D158" s="20"/>
+      <c r="G158" s="23"/>
     </row>
     <row r="159" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D159" s="21"/>
-      <c r="G159" s="24"/>
+      <c r="D159" s="20"/>
+      <c r="G159" s="23"/>
     </row>
     <row r="160" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D160" s="21"/>
-      <c r="G160" s="24"/>
+      <c r="D160" s="20"/>
+      <c r="G160" s="23"/>
     </row>
     <row r="161" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D161" s="21"/>
-      <c r="G161" s="24"/>
+      <c r="D161" s="20"/>
+      <c r="G161" s="23"/>
     </row>
     <row r="162" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D162" s="21"/>
-      <c r="G162" s="24"/>
+      <c r="D162" s="20"/>
+      <c r="G162" s="23"/>
     </row>
     <row r="163" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D163" s="21"/>
-      <c r="G163" s="24"/>
+      <c r="D163" s="20"/>
+      <c r="G163" s="23"/>
     </row>
     <row r="164" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D164" s="21"/>
-      <c r="G164" s="24"/>
+      <c r="D164" s="20"/>
+      <c r="G164" s="23"/>
     </row>
     <row r="165" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D165" s="21"/>
-      <c r="G165" s="24"/>
+      <c r="D165" s="20"/>
+      <c r="G165" s="23"/>
     </row>
     <row r="166" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D166" s="21"/>
-      <c r="G166" s="24"/>
+      <c r="D166" s="20"/>
+      <c r="G166" s="23"/>
     </row>
     <row r="167" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D167" s="21"/>
-      <c r="G167" s="24"/>
+      <c r="D167" s="20"/>
+      <c r="G167" s="23"/>
     </row>
     <row r="168" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D168" s="21"/>
-      <c r="G168" s="24"/>
+      <c r="D168" s="20"/>
+      <c r="G168" s="23"/>
     </row>
     <row r="169" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D169" s="21"/>
-      <c r="G169" s="24"/>
+      <c r="D169" s="20"/>
+      <c r="G169" s="23"/>
     </row>
     <row r="170" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D170" s="21"/>
-      <c r="G170" s="24"/>
+      <c r="D170" s="20"/>
+      <c r="G170" s="23"/>
     </row>
     <row r="171" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D171" s="21"/>
-      <c r="G171" s="24"/>
+      <c r="D171" s="20"/>
+      <c r="G171" s="23"/>
     </row>
     <row r="172" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D172" s="21"/>
-      <c r="G172" s="24"/>
+      <c r="D172" s="20"/>
+      <c r="G172" s="23"/>
     </row>
     <row r="173" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D173" s="21"/>
-      <c r="G173" s="24"/>
+      <c r="D173" s="20"/>
+      <c r="G173" s="23"/>
     </row>
     <row r="174" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D174" s="21"/>
-      <c r="G174" s="24"/>
+      <c r="D174" s="20"/>
+      <c r="G174" s="23"/>
     </row>
     <row r="175" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D175" s="21"/>
-      <c r="G175" s="24"/>
+      <c r="D175" s="20"/>
+      <c r="G175" s="23"/>
     </row>
     <row r="176" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D176" s="21"/>
-      <c r="G176" s="24"/>
+      <c r="D176" s="20"/>
+      <c r="G176" s="23"/>
     </row>
     <row r="177" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D177" s="21"/>
-      <c r="G177" s="24"/>
+      <c r="D177" s="20"/>
+      <c r="G177" s="23"/>
     </row>
     <row r="178" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D178" s="21"/>
-      <c r="G178" s="24"/>
+      <c r="D178" s="20"/>
+      <c r="G178" s="23"/>
     </row>
     <row r="179" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D179" s="21"/>
-      <c r="G179" s="24"/>
+      <c r="D179" s="20"/>
+      <c r="G179" s="23"/>
     </row>
     <row r="180" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D180" s="21"/>
-      <c r="G180" s="24"/>
+      <c r="D180" s="20"/>
+      <c r="G180" s="23"/>
     </row>
     <row r="181" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D181" s="21"/>
-      <c r="G181" s="24"/>
+      <c r="D181" s="20"/>
+      <c r="G181" s="23"/>
     </row>
     <row r="182" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D182" s="21"/>
-      <c r="G182" s="24"/>
+      <c r="D182" s="20"/>
+      <c r="G182" s="23"/>
     </row>
     <row r="183" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D183" s="21"/>
-      <c r="G183" s="24"/>
+      <c r="D183" s="20"/>
+      <c r="G183" s="23"/>
     </row>
     <row r="184" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D184" s="21"/>
-      <c r="G184" s="24"/>
+      <c r="D184" s="20"/>
+      <c r="G184" s="23"/>
     </row>
     <row r="185" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D185" s="21"/>
-      <c r="G185" s="24"/>
+      <c r="D185" s="20"/>
+      <c r="G185" s="23"/>
     </row>
     <row r="186" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D186" s="21"/>
-      <c r="G186" s="24"/>
+      <c r="D186" s="20"/>
+      <c r="G186" s="23"/>
     </row>
     <row r="187" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D187" s="21"/>
-      <c r="G187" s="24"/>
+      <c r="D187" s="20"/>
+      <c r="G187" s="23"/>
     </row>
     <row r="188" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D188" s="21"/>
-      <c r="G188" s="24"/>
+      <c r="D188" s="20"/>
+      <c r="G188" s="23"/>
     </row>
     <row r="189" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D189" s="21"/>
-      <c r="G189" s="24"/>
+      <c r="D189" s="20"/>
+      <c r="G189" s="23"/>
     </row>
     <row r="190" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D190" s="21"/>
-      <c r="G190" s="24"/>
+      <c r="D190" s="20"/>
+      <c r="G190" s="23"/>
     </row>
     <row r="191" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D191" s="21"/>
-      <c r="G191" s="24"/>
+      <c r="D191" s="20"/>
+      <c r="G191" s="23"/>
     </row>
     <row r="192" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D192" s="21"/>
-      <c r="G192" s="24"/>
+      <c r="D192" s="20"/>
+      <c r="G192" s="23"/>
     </row>
     <row r="193" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D193" s="21"/>
-      <c r="G193" s="24"/>
+      <c r="D193" s="20"/>
+      <c r="G193" s="23"/>
     </row>
     <row r="194" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D194" s="21"/>
-      <c r="G194" s="24"/>
+      <c r="D194" s="20"/>
+      <c r="G194" s="23"/>
     </row>
     <row r="195" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D195" s="21"/>
-      <c r="G195" s="24"/>
+      <c r="D195" s="20"/>
+      <c r="G195" s="23"/>
     </row>
     <row r="196" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D196" s="21"/>
-      <c r="G196" s="24"/>
+      <c r="D196" s="20"/>
+      <c r="G196" s="23"/>
     </row>
     <row r="197" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D197" s="21"/>
-      <c r="G197" s="24"/>
+      <c r="D197" s="20"/>
+      <c r="G197" s="23"/>
     </row>
     <row r="198" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D198" s="21"/>
-      <c r="G198" s="24"/>
+      <c r="D198" s="20"/>
+      <c r="G198" s="23"/>
     </row>
     <row r="199" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D199" s="21"/>
-      <c r="G199" s="24"/>
+      <c r="D199" s="20"/>
+      <c r="G199" s="23"/>
     </row>
     <row r="200" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D200" s="21"/>
-      <c r="G200" s="24"/>
+      <c r="D200" s="20"/>
+      <c r="G200" s="23"/>
     </row>
     <row r="201" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D201" s="21"/>
-      <c r="G201" s="24"/>
+      <c r="D201" s="20"/>
+      <c r="G201" s="23"/>
     </row>
     <row r="202" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D202" s="21"/>
-      <c r="G202" s="24"/>
+      <c r="D202" s="20"/>
+      <c r="G202" s="23"/>
     </row>
     <row r="203" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D203" s="21"/>
-      <c r="G203" s="24"/>
+      <c r="D203" s="20"/>
+      <c r="G203" s="23"/>
     </row>
     <row r="204" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D204" s="21"/>
-      <c r="G204" s="24"/>
+      <c r="D204" s="20"/>
+      <c r="G204" s="23"/>
     </row>
     <row r="205" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D205" s="21"/>
-      <c r="G205" s="24"/>
+      <c r="D205" s="20"/>
+      <c r="G205" s="23"/>
     </row>
     <row r="206" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D206" s="21"/>
-      <c r="G206" s="24"/>
+      <c r="D206" s="20"/>
+      <c r="G206" s="23"/>
     </row>
     <row r="207" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D207" s="21"/>
-      <c r="G207" s="24"/>
+      <c r="D207" s="20"/>
+      <c r="G207" s="23"/>
     </row>
     <row r="208" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D208" s="21"/>
-      <c r="G208" s="24"/>
+      <c r="D208" s="20"/>
+      <c r="G208" s="23"/>
     </row>
     <row r="209" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D209" s="21"/>
-      <c r="G209" s="24"/>
+      <c r="D209" s="20"/>
+      <c r="G209" s="23"/>
     </row>
     <row r="210" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D210" s="21"/>
-      <c r="G210" s="24"/>
+      <c r="D210" s="20"/>
+      <c r="G210" s="23"/>
     </row>
     <row r="211" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D211" s="21"/>
-      <c r="G211" s="24"/>
+      <c r="D211" s="20"/>
+      <c r="G211" s="23"/>
     </row>
     <row r="212" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D212" s="21"/>
-      <c r="G212" s="24"/>
+      <c r="D212" s="20"/>
+      <c r="G212" s="23"/>
     </row>
     <row r="213" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D213" s="21"/>
-      <c r="G213" s="24"/>
+      <c r="D213" s="20"/>
+      <c r="G213" s="23"/>
     </row>
     <row r="214" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D214" s="21"/>
-      <c r="G214" s="24"/>
+      <c r="D214" s="20"/>
+      <c r="G214" s="23"/>
     </row>
     <row r="215" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D215" s="21"/>
-      <c r="G215" s="24"/>
+      <c r="D215" s="20"/>
+      <c r="G215" s="23"/>
     </row>
     <row r="216" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D216" s="21"/>
-      <c r="G216" s="24"/>
+      <c r="D216" s="20"/>
+      <c r="G216" s="23"/>
     </row>
     <row r="217" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D217" s="21"/>
-      <c r="G217" s="24"/>
+      <c r="D217" s="20"/>
+      <c r="G217" s="23"/>
     </row>
     <row r="218" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D218" s="21"/>
-      <c r="G218" s="24"/>
+      <c r="D218" s="20"/>
+      <c r="G218" s="23"/>
     </row>
     <row r="219" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D219" s="21"/>
-      <c r="G219" s="24"/>
+      <c r="D219" s="20"/>
+      <c r="G219" s="23"/>
     </row>
     <row r="220" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D220" s="21"/>
-      <c r="G220" s="24"/>
+      <c r="D220" s="20"/>
+      <c r="G220" s="23"/>
     </row>
     <row r="221" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D221" s="21"/>
-      <c r="G221" s="24"/>
+      <c r="D221" s="20"/>
+      <c r="G221" s="23"/>
     </row>
     <row r="222" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D222" s="21"/>
-      <c r="G222" s="24"/>
+      <c r="D222" s="20"/>
+      <c r="G222" s="23"/>
     </row>
     <row r="223" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D223" s="21"/>
-      <c r="G223" s="24"/>
+      <c r="D223" s="20"/>
+      <c r="G223" s="23"/>
     </row>
     <row r="224" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D224" s="21"/>
-      <c r="G224" s="24"/>
+      <c r="D224" s="20"/>
+      <c r="G224" s="23"/>
     </row>
     <row r="225" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D225" s="21"/>
-      <c r="G225" s="24"/>
+      <c r="D225" s="20"/>
+      <c r="G225" s="23"/>
     </row>
     <row r="226" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D226" s="21"/>
-      <c r="G226" s="24"/>
+      <c r="D226" s="20"/>
+      <c r="G226" s="23"/>
     </row>
     <row r="227" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D227" s="21"/>
-      <c r="G227" s="24"/>
+      <c r="D227" s="20"/>
+      <c r="G227" s="23"/>
     </row>
     <row r="228" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D228" s="21"/>
-      <c r="G228" s="24"/>
+      <c r="D228" s="20"/>
+      <c r="G228" s="23"/>
     </row>
     <row r="229" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D229" s="21"/>
-      <c r="G229" s="24"/>
+      <c r="D229" s="20"/>
+      <c r="G229" s="23"/>
     </row>
     <row r="230" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D230" s="21"/>
-      <c r="G230" s="24"/>
+      <c r="D230" s="20"/>
+      <c r="G230" s="23"/>
     </row>
     <row r="231" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D231" s="21"/>
-      <c r="G231" s="24"/>
+      <c r="D231" s="20"/>
+      <c r="G231" s="23"/>
     </row>
     <row r="232" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D232" s="21"/>
-      <c r="G232" s="24"/>
+      <c r="D232" s="20"/>
+      <c r="G232" s="23"/>
     </row>
     <row r="233" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D233" s="21"/>
-      <c r="G233" s="24"/>
+      <c r="D233" s="20"/>
+      <c r="G233" s="23"/>
     </row>
     <row r="234" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D234" s="21"/>
-      <c r="G234" s="24"/>
+      <c r="D234" s="20"/>
+      <c r="G234" s="23"/>
     </row>
     <row r="235" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D235" s="21"/>
-      <c r="G235" s="24"/>
+      <c r="D235" s="20"/>
+      <c r="G235" s="23"/>
     </row>
     <row r="236" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D236" s="21"/>
-      <c r="G236" s="24"/>
+      <c r="D236" s="20"/>
+      <c r="G236" s="23"/>
     </row>
     <row r="237" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D237" s="21"/>
-      <c r="G237" s="24"/>
+      <c r="D237" s="20"/>
+      <c r="G237" s="23"/>
     </row>
     <row r="238" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D238" s="21"/>
-      <c r="G238" s="24"/>
+      <c r="D238" s="20"/>
+      <c r="G238" s="23"/>
     </row>
     <row r="239" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D239" s="21"/>
-      <c r="G239" s="24"/>
+      <c r="D239" s="20"/>
+      <c r="G239" s="23"/>
     </row>
     <row r="240" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D240" s="21"/>
-      <c r="G240" s="24"/>
+      <c r="D240" s="20"/>
+      <c r="G240" s="23"/>
     </row>
     <row r="241" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D241" s="21"/>
-      <c r="G241" s="24"/>
+      <c r="D241" s="20"/>
+      <c r="G241" s="23"/>
     </row>
     <row r="242" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D242" s="21"/>
-      <c r="G242" s="24"/>
+      <c r="D242" s="20"/>
+      <c r="G242" s="23"/>
     </row>
     <row r="243" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D243" s="21"/>
-      <c r="G243" s="24"/>
+      <c r="D243" s="20"/>
+      <c r="G243" s="23"/>
     </row>
     <row r="244" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D244" s="21"/>
-      <c r="G244" s="24"/>
+      <c r="D244" s="20"/>
+      <c r="G244" s="23"/>
     </row>
     <row r="245" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D245" s="21"/>
-      <c r="G245" s="24"/>
+      <c r="D245" s="20"/>
+      <c r="G245" s="23"/>
     </row>
     <row r="246" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D246" s="21"/>
-      <c r="G246" s="24"/>
+      <c r="D246" s="20"/>
+      <c r="G246" s="23"/>
     </row>
     <row r="247" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D247" s="21"/>
-      <c r="G247" s="24"/>
+      <c r="D247" s="20"/>
+      <c r="G247" s="23"/>
     </row>
     <row r="248" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D248" s="21"/>
-      <c r="G248" s="24"/>
+      <c r="D248" s="20"/>
+      <c r="G248" s="23"/>
     </row>
     <row r="249" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D249" s="21"/>
-      <c r="G249" s="24"/>
+      <c r="D249" s="20"/>
+      <c r="G249" s="23"/>
     </row>
     <row r="250" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D250" s="21"/>
-      <c r="G250" s="24"/>
+      <c r="D250" s="20"/>
+      <c r="G250" s="23"/>
     </row>
     <row r="251" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D251" s="21"/>
-      <c r="G251" s="24"/>
+      <c r="D251" s="20"/>
+      <c r="G251" s="23"/>
     </row>
     <row r="252" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D252" s="21"/>
-      <c r="G252" s="24"/>
+      <c r="D252" s="20"/>
+      <c r="G252" s="23"/>
     </row>
     <row r="253" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D253" s="21"/>
-      <c r="G253" s="24"/>
+      <c r="D253" s="20"/>
+      <c r="G253" s="23"/>
     </row>
     <row r="254" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D254" s="21"/>
-      <c r="G254" s="24"/>
+      <c r="D254" s="20"/>
+      <c r="G254" s="23"/>
     </row>
     <row r="255" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D255" s="21"/>
-      <c r="G255" s="24"/>
+      <c r="D255" s="20"/>
+      <c r="G255" s="23"/>
     </row>
     <row r="256" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
